--- a/Data/ConsumptionLong.xlsx
+++ b/Data/ConsumptionLong.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Dropbox\BOOK_FE\BookData\DataLibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Documents\GitHub\EoFE_DCG_Springer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BE6008BC-6CCA-40AA-A0B5-3F272F4BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C5753B-6380-4FEE-9941-DFBE555ACE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumption" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -95,9 +84,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +124,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +230,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,14 +372,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
